--- a/docs/assets/disciplinas/LOB1252.xlsx
+++ b/docs/assets/disciplinas/LOB1252.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar aos alunos o estudo de tecnologias voltadas à captura de CO2 por meios físicos, químicos e biológicos e comparar os estudos de tecnologias voltadas para à captura de CO2, enfatizando suas vantagens, desvantagens e aplicabilidade quanto ao ponto de vista tecnológico, ambiental e de sustentabilidade.</t>
+    <t>5840692 - Diovana Aparecida dos Santos Napoleão</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840692 - Diovana Aparecida dos Santos Napoleão</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>O Ciclo do carbono e emissões. Fontes renováveis e não renováveis. Estudo das emissões na geração de energia. Tecnologias de captura/sequestro e armazenamento de CO2. Alternativas de mitigação de CO2</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Estudo do dióxido de carbono e sua importância na atmosfera. Formação do Ciclo do carbono. Influência do CO2 sobre o meio ambiente. Aquecimento global e os gases de efeito estufa (GEE). Emissões mundiais de GEE por atividades antropogênicas. Emissões históricas globais de CO2 atribuíveis à mudança de uso da Terra. Emissões de CO2 na mudança de uso da Terra em Biomas do Brasil, Potencial de sequestro de carbono em atividades de manejo no Brasil. Fontes renováveis de energia. Termelétricas, Hidrelétricas, Energia eólica, Energia solar, Energia geotérmica, Energia mareomotriz. Fontes não renováveis de energia. O carvão no mundo e no Brasil. Petróleo. Gás natural. Estudo das emissões de CO2 na geração de energia: perspectivas do gerenciamento ambiental para o problema. A questão das emissões de CO2 e a comunidade internacional. Captura, separação e armazenamento de CO2. Estudo das tecnologias avançadas na geração energética para redução das emissões de CO2. Alternativas tecnológicas para a redução das emissões de CO2.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,31 +109,23 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação da disciplina será feita por meio de avaliação escrita e avaliação de atividades em grupo (seminários)</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A média será composta da seguinte forma:
 Nota do semestre (M) = 0,6P+0,4S. Sendo uma prova na final do semestre (P) e o seminário (S) apresentado pelos alunos.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A Nota de Recuperação (NR) será dada pela média aritmética entre a Nota do Semestre (M) e a Prova de Recuperação (PR), sendo aprovado o aluno que obtiver NR maior ou igual a cinco.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1 - Villela, A. A., Freitas, M. A., Rosa, L. P. Emissões de carbono na mudança de uso do solo. Edta Interciência, Vol. 2, 2012.
-2 - Marengo, J.A. Mudanças climáticas globais e seus efeitos sobre a biodiversidade. Ministério do Meio Ambiente, 2006.
-3 - Patusco, J. A. M. Energia &amp;Desenvolvimento  Ranking Estadual de Energia, Emissões CO2 e socioeconômica. Edta Kiron, 2012.
-4 - Goldemberg, J., Palleta, F. C. Energias Renováveis. Edta. Blucher, 2012.
-Burattini, M. P. T. C., Energia uma abordagem multidisciplinar. Edta LTF, 2009.
-5 - Meyer, L., Pachauri, R. K. Climate Change 2014  Synthesis Report. Intergovernmental Panel on Climate Change. Geneva, Switzerland, 151 pp., 2014.</t>
   </si>
 </sst>
 </file>
@@ -495,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,34 +612,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -667,64 +656,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1252.xlsx
+++ b/docs/assets/disciplinas/LOB1252.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar aos alunos o estudo de tecnologias voltadas à captura de CO2 por meios físicos, químicos e biológicos e comparar os estudos de tecnologias voltadas para à captura de CO2, enfatizando suas vantagens, desvantagens e aplicabilidade quanto ao ponto de vista tecnológico, ambiental e de sustentabilidade.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Introduce students to the study of technologies related to CO2 capture by physical, chemical and biological and compare the studies of technologies for the capture of CO2, emphasizing its advantages, disadvantages and applicability as the technological point of view, technological, environmental and sustainability.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840692 - Diovana Aparecida dos Santos Napoleão</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Introduce students to the study of technologies related to CO2 capture by physical, chemical and biological and compare the studies of technologies for the capture of CO2, emphasizing its advantages, disadvantages and applicability as the technological point of view, technological, environmental and sustainability.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>O Ciclo do carbono e emissões. Fontes renováveis e não renováveis. Estudo das emissões na geração de energia. Tecnologias de captura/sequestro e armazenamento de CO2. Alternativas de mitigação de CO2</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Estudo do dióxido de carbono e sua importância na atmosfera. Formação do Ciclo do carbono. Influência do CO2 sobre o meio ambiente. Aquecimento global e os gases de efeito estufa (GEE). Emissões mundiais de GEE por atividades antropogênicas. Emissões históricas globais de CO2 atribuíveis à mudança de uso da Terra. Emissões de CO2 na mudança de uso da Terra em Biomas do Brasil, Potencial de sequestro de carbono em atividades de manejo no Brasil. Fontes renováveis de energia. Termelétricas, Hidrelétricas, Energia eólica, Energia solar, Energia geotérmica, Energia mareomotriz. Fontes não renováveis de energia. O carvão no mundo e no Brasil. Petróleo. Gás natural. Estudo das emissões de CO2 na geração de energia: perspectivas do gerenciamento ambiental para o problema. A questão das emissões de CO2 e a comunidade internacional. Captura, separação e armazenamento de CO2. Estudo das tecnologias avançadas na geração energética para redução das emissões de CO2. Alternativas tecnológicas para a redução das emissões de CO2.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,23 +115,31 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação da disciplina será feita por meio de avaliação escrita e avaliação de atividades em grupo (seminários)</t>
+  </si>
+  <si>
     <t>Critério:</t>
-  </si>
-  <si>
-    <t>A avaliação da disciplina será feita por meio de avaliação escrita e avaliação de atividades em grupo (seminários)</t>
-  </si>
-  <si>
-    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A média será composta da seguinte forma:
 Nota do semestre (M) = 0,6P+0,4S. Sendo uma prova na final do semestre (P) e o seminário (S) apresentado pelos alunos.</t>
   </si>
   <si>
+    <t>Norma de recuperação:</t>
+  </si>
+  <si>
+    <t>A Nota de Recuperação (NR) será dada pela média aritmética entre a Nota do Semestre (M) e a Prova de Recuperação (PR), sendo aprovado o aluno que obtiver NR maior ou igual a cinco.</t>
+  </si>
+  <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A Nota de Recuperação (NR) será dada pela média aritmética entre a Nota do Semestre (M) e a Prova de Recuperação (PR), sendo aprovado o aluno que obtiver NR maior ou igual a cinco.</t>
+    <t>1 - Villela, A. A., Freitas, M. A., Rosa, L. P. Emissões de carbono na mudança de uso do solo. Edta Interciência, Vol. 2, 2012.
+2 - Marengo, J.A. Mudanças climáticas globais e seus efeitos sobre a biodiversidade. Ministério do Meio Ambiente, 2006.
+3 - Patusco, J. A. M. Energia &amp;Desenvolvimento  Ranking Estadual de Energia, Emissões CO2 e socioeconômica. Edta Kiron, 2012.
+4 - Goldemberg, J., Palleta, F. C. Energias Renováveis. Edta. Blucher, 2012.
+Burattini, M. P. T. C., Energia uma abordagem multidisciplinar. Edta LTF, 2009.
+5 - Meyer, L., Pachauri, R. K. Climate Change 2014  Synthesis Report. Intergovernmental Panel on Climate Change. Geneva, Switzerland, 151 pp., 2014.</t>
   </si>
 </sst>
 </file>
@@ -481,13 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -612,37 +626,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -656,53 +667,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
